--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H2">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I2">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J2">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.273058</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N2">
-        <v>3.819174</v>
+        <v>12.398626</v>
       </c>
       <c r="O2">
-        <v>0.1826308343983922</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P2">
-        <v>0.1826308343983922</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q2">
-        <v>0.6994791719839999</v>
+        <v>7.700552412331111</v>
       </c>
       <c r="R2">
-        <v>6.295312547856</v>
+        <v>69.30497171098</v>
       </c>
       <c r="S2">
-        <v>0.06991726663866851</v>
+        <v>0.2375406504953346</v>
       </c>
       <c r="T2">
-        <v>0.06991726663866851</v>
+        <v>0.2375406504953346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H3">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.282439</v>
       </c>
       <c r="O3">
-        <v>0.7307979647464429</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P3">
-        <v>0.7307979647464428</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q3">
-        <v>2.798968514557333</v>
+        <v>9.491634194607778</v>
       </c>
       <c r="R3">
-        <v>25.190716631016</v>
+        <v>85.42470775147</v>
       </c>
       <c r="S3">
-        <v>0.2797742031266935</v>
+        <v>0.2927905480184071</v>
       </c>
       <c r="T3">
-        <v>0.2797742031266935</v>
+        <v>0.2927905480184071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H4">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5906476666666666</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N4">
-        <v>1.771943</v>
+        <v>3.988312</v>
       </c>
       <c r="O4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P4">
-        <v>0.08473335558850953</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q4">
-        <v>0.3245301791546666</v>
+        <v>2.477065248417778</v>
       </c>
       <c r="R4">
-        <v>2.920771612392</v>
+        <v>22.29358723576</v>
       </c>
       <c r="S4">
-        <v>0.03243879728955062</v>
+        <v>0.07641058185466269</v>
       </c>
       <c r="T4">
-        <v>0.03243879728955062</v>
+        <v>0.07641058185466269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5494479999999999</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H5">
-        <v>1.648344</v>
+        <v>2.952595</v>
       </c>
       <c r="I5">
-        <v>0.3828338564458972</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J5">
-        <v>0.3828338564458972</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.012811</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N5">
-        <v>0.03843299999999999</v>
+        <v>12.398626</v>
       </c>
       <c r="O5">
-        <v>0.00183784526665541</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P5">
-        <v>0.00183784526665541</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q5">
-        <v>0.007038978327999998</v>
+        <v>4.067569014941112</v>
       </c>
       <c r="R5">
-        <v>0.06335080495199999</v>
+        <v>36.60812113447</v>
       </c>
       <c r="S5">
-        <v>0.0007035893909845287</v>
+        <v>0.1254732047789916</v>
       </c>
       <c r="T5">
-        <v>0.0007035893909845287</v>
+        <v>0.1254732047789916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H6">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.273058</v>
+        <v>5.094146333333334</v>
       </c>
       <c r="N6">
-        <v>3.819174</v>
+        <v>15.282439</v>
       </c>
       <c r="O6">
-        <v>0.1826308343983922</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P6">
-        <v>0.1826308343983922</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q6">
-        <v>0.2876275105246667</v>
+        <v>5.013650331022778</v>
       </c>
       <c r="R6">
-        <v>2.588647594722</v>
+        <v>45.122852979205</v>
       </c>
       <c r="S6">
-        <v>0.02875014746890785</v>
+        <v>0.154657185253386</v>
       </c>
       <c r="T6">
-        <v>0.02875014746890785</v>
+        <v>0.1546571852533859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H7">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.094146333333334</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N7">
-        <v>15.282439</v>
+        <v>3.988312</v>
       </c>
       <c r="O7">
-        <v>0.7307979647464429</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P7">
-        <v>0.7307979647464428</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q7">
-        <v>1.150942555724111</v>
+        <v>1.308430007737778</v>
       </c>
       <c r="R7">
-        <v>10.358483001517</v>
+        <v>11.77587006964</v>
       </c>
       <c r="S7">
-        <v>0.1150438222858107</v>
+        <v>0.04036143104070641</v>
       </c>
       <c r="T7">
-        <v>0.1150438222858106</v>
+        <v>0.04036143104070641</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2259343333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H8">
-        <v>0.6778029999999999</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I8">
-        <v>0.1574221985220309</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J8">
-        <v>0.1574221985220309</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5906476666666666</v>
+        <v>4.132875333333334</v>
       </c>
       <c r="N8">
-        <v>1.771943</v>
+        <v>12.398626</v>
       </c>
       <c r="O8">
-        <v>0.08473335558850953</v>
+        <v>0.391502049440379</v>
       </c>
       <c r="P8">
-        <v>0.08473335558850953</v>
+        <v>0.3915020494403789</v>
       </c>
       <c r="Q8">
-        <v>0.1334475868032222</v>
+        <v>0.9235254338611112</v>
       </c>
       <c r="R8">
-        <v>1.201028281229</v>
+        <v>8.311728904750002</v>
       </c>
       <c r="S8">
-        <v>0.01333891112489218</v>
+        <v>0.02848819416605274</v>
       </c>
       <c r="T8">
-        <v>0.01333891112489218</v>
+        <v>0.02848819416605274</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2259343333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H9">
-        <v>0.6778029999999999</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I9">
-        <v>0.1574221985220309</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J9">
-        <v>0.1574221985220309</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.012811</v>
+        <v>5.094146333333334</v>
       </c>
       <c r="N9">
-        <v>0.03843299999999999</v>
+        <v>15.282439</v>
       </c>
       <c r="O9">
-        <v>0.00183784526665541</v>
+        <v>0.4825620346115429</v>
       </c>
       <c r="P9">
-        <v>0.00183784526665541</v>
+        <v>0.4825620346115428</v>
       </c>
       <c r="Q9">
-        <v>0.002894444744333333</v>
+        <v>1.138329449402778</v>
       </c>
       <c r="R9">
-        <v>0.02605000269899999</v>
+        <v>10.244965044625</v>
       </c>
       <c r="S9">
-        <v>0.0002893176424202027</v>
+        <v>0.03511430133974981</v>
       </c>
       <c r="T9">
-        <v>0.0002893176424202027</v>
+        <v>0.03511430133974981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H10">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.273058</v>
+        <v>1.329437333333333</v>
       </c>
       <c r="N10">
-        <v>3.819174</v>
+        <v>3.988312</v>
       </c>
       <c r="O10">
-        <v>0.1826308343983922</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="P10">
-        <v>0.1826308343983922</v>
+        <v>0.1259359159480782</v>
       </c>
       <c r="Q10">
-        <v>0.8400022844926667</v>
+        <v>0.2970738507777778</v>
       </c>
       <c r="R10">
-        <v>7.560020560434</v>
+        <v>2.673664657</v>
       </c>
       <c r="S10">
-        <v>0.08396342029081585</v>
+        <v>0.009163903052709078</v>
       </c>
       <c r="T10">
-        <v>0.08396342029081585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.6598303333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.979491</v>
-      </c>
-      <c r="I11">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="J11">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.094146333333334</v>
-      </c>
-      <c r="N11">
-        <v>15.282439</v>
-      </c>
-      <c r="O11">
-        <v>0.7307979647464429</v>
-      </c>
-      <c r="P11">
-        <v>0.7307979647464428</v>
-      </c>
-      <c r="Q11">
-        <v>3.361272273172111</v>
-      </c>
-      <c r="R11">
-        <v>30.251450458549</v>
-      </c>
-      <c r="S11">
-        <v>0.3359799393339387</v>
-      </c>
-      <c r="T11">
-        <v>0.3359799393339386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.6598303333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.979491</v>
-      </c>
-      <c r="I12">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="J12">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.5906476666666666</v>
-      </c>
-      <c r="N12">
-        <v>1.771943</v>
-      </c>
-      <c r="O12">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="P12">
-        <v>0.08473335558850953</v>
-      </c>
-      <c r="Q12">
-        <v>0.3897272467792222</v>
-      </c>
-      <c r="R12">
-        <v>3.507545221012999</v>
-      </c>
-      <c r="S12">
-        <v>0.03895564717406673</v>
-      </c>
-      <c r="T12">
-        <v>0.03895564717406673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.6598303333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.979491</v>
-      </c>
-      <c r="I13">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="J13">
-        <v>0.4597439450320719</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.012811</v>
-      </c>
-      <c r="N13">
-        <v>0.03843299999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="P13">
-        <v>0.00183784526665541</v>
-      </c>
-      <c r="Q13">
-        <v>0.008453086400333331</v>
-      </c>
-      <c r="R13">
-        <v>0.07607777760299998</v>
-      </c>
-      <c r="S13">
-        <v>0.0008449382332506782</v>
-      </c>
-      <c r="T13">
-        <v>0.0008449382332506782</v>
+        <v>0.009163903052709078</v>
       </c>
     </row>
   </sheetData>
